--- a/report_testonline.xlsx
+++ b/report_testonline.xlsx
@@ -575,9 +575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1107720</xdr:colOff>
+      <xdr:colOff>1107360</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -591,7 +591,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10080" y="1672560"/>
-          <a:ext cx="4222800" cy="3167640"/>
+          <a:ext cx="4222080" cy="3167280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -612,9 +612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>101520</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -627,8 +627,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4440960" y="1689120"/>
-          <a:ext cx="4174560" cy="3130200"/>
+          <a:off x="4440600" y="1689120"/>
+          <a:ext cx="4173840" cy="3129840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,9 +649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>785160</xdr:colOff>
+      <xdr:colOff>784800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -664,8 +664,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9328680" y="1720080"/>
-          <a:ext cx="4134600" cy="3100680"/>
+          <a:off x="9327960" y="1720080"/>
+          <a:ext cx="4134600" cy="3100320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -686,9 +686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1237320</xdr:colOff>
+      <xdr:colOff>1236960</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>157680</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -702,7 +702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="60120" y="6521400"/>
-          <a:ext cx="4302360" cy="3227040"/>
+          <a:ext cx="4301640" cy="3226680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -723,9 +723,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>133920</xdr:colOff>
+      <xdr:colOff>133560</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -738,8 +738,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4381200" y="6532920"/>
-          <a:ext cx="4266720" cy="3199320"/>
+          <a:off x="4380840" y="6532920"/>
+          <a:ext cx="4266000" cy="3198960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -760,9 +760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>701280</xdr:colOff>
+      <xdr:colOff>700920</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>141480</xdr:rowOff>
+      <xdr:rowOff>141120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -775,8 +775,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9123120" y="6540120"/>
-          <a:ext cx="4256280" cy="3192120"/>
+          <a:off x="9122400" y="6540120"/>
+          <a:ext cx="4256280" cy="3191760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -797,9 +797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1186920</xdr:colOff>
+      <xdr:colOff>1186560</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -813,7 +813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="17592480"/>
-          <a:ext cx="4312080" cy="3234600"/>
+          <a:ext cx="4311360" cy="3234240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,9 +834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>339480</xdr:colOff>
+      <xdr:colOff>339120</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -849,8 +849,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4584600" y="17601840"/>
-          <a:ext cx="4268880" cy="3201120"/>
+          <a:off x="4584240" y="17601840"/>
+          <a:ext cx="4268160" cy="3200760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -871,9 +871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>774720</xdr:colOff>
+      <xdr:colOff>774360</xdr:colOff>
       <xdr:row>127</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -886,8 +886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9219960" y="17611920"/>
-          <a:ext cx="4232880" cy="3174480"/>
+          <a:off x="9219240" y="17611920"/>
+          <a:ext cx="4232880" cy="3174120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -908,9 +908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1088280</xdr:colOff>
+      <xdr:colOff>1087920</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -924,7 +924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22682160"/>
-          <a:ext cx="4213440" cy="3160440"/>
+          <a:ext cx="4212720" cy="3160080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -945,9 +945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>361800</xdr:colOff>
+      <xdr:colOff>361440</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -960,8 +960,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4583880" y="22642200"/>
-          <a:ext cx="4291920" cy="3218760"/>
+          <a:off x="4583520" y="22642200"/>
+          <a:ext cx="4291200" cy="3218400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -982,9 +982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>812160</xdr:colOff>
+      <xdr:colOff>811800</xdr:colOff>
       <xdr:row>158</xdr:row>
-      <xdr:rowOff>148680</xdr:rowOff>
+      <xdr:rowOff>148320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -997,8 +997,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9160200" y="22632480"/>
-          <a:ext cx="4330080" cy="3247560"/>
+          <a:off x="9159480" y="22632480"/>
+          <a:ext cx="4330080" cy="3247200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1019,9 +1019,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1117800</xdr:colOff>
+      <xdr:colOff>1117440</xdr:colOff>
       <xdr:row>285</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:rowOff>94680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1035,7 +1035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="43340760"/>
-          <a:ext cx="4242960" cy="3182760"/>
+          <a:ext cx="4242240" cy="3182400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1056,9 +1056,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>392040</xdr:colOff>
+      <xdr:colOff>391680</xdr:colOff>
       <xdr:row>285</xdr:row>
-      <xdr:rowOff>140400</xdr:rowOff>
+      <xdr:rowOff>140040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1071,8 +1071,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4609080" y="43346520"/>
-          <a:ext cx="4296960" cy="3222360"/>
+          <a:off x="4608720" y="43346520"/>
+          <a:ext cx="4296240" cy="3222000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1093,9 +1093,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>856080</xdr:colOff>
+      <xdr:colOff>855720</xdr:colOff>
       <xdr:row>285</xdr:row>
-      <xdr:rowOff>106200</xdr:rowOff>
+      <xdr:rowOff>105840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1108,8 +1108,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9280800" y="43344720"/>
-          <a:ext cx="4253400" cy="3189960"/>
+          <a:off x="9280080" y="43344720"/>
+          <a:ext cx="4253400" cy="3189600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,9 +1130,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1137600</xdr:colOff>
+      <xdr:colOff>1137240</xdr:colOff>
       <xdr:row>316</xdr:row>
-      <xdr:rowOff>97920</xdr:rowOff>
+      <xdr:rowOff>97560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1146,7 +1146,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="48368160"/>
-          <a:ext cx="4262760" cy="3197520"/>
+          <a:ext cx="4262040" cy="3197160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1167,9 +1167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>388800</xdr:colOff>
+      <xdr:colOff>388440</xdr:colOff>
       <xdr:row>316</xdr:row>
-      <xdr:rowOff>101160</xdr:rowOff>
+      <xdr:rowOff>100800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1182,8 +1182,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4638600" y="48371040"/>
-          <a:ext cx="4264200" cy="3197880"/>
+          <a:off x="4638240" y="48371040"/>
+          <a:ext cx="4263480" cy="3197520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1204,9 +1204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>459000</xdr:colOff>
+      <xdr:colOff>458640</xdr:colOff>
       <xdr:row>316</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:rowOff>66960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1219,8 +1219,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8931600" y="48381120"/>
-          <a:ext cx="4205520" cy="3153960"/>
+          <a:off x="8930880" y="48381120"/>
+          <a:ext cx="4205520" cy="3153600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1241,9 +1241,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1157400</xdr:colOff>
+      <xdr:colOff>1157040</xdr:colOff>
       <xdr:row>348</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1257,7 +1257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="53570160"/>
-          <a:ext cx="4282560" cy="3212280"/>
+          <a:ext cx="4281840" cy="3211920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1278,9 +1278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>415800</xdr:colOff>
+      <xdr:colOff>415440</xdr:colOff>
       <xdr:row>348</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1293,8 +1293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4704120" y="53604000"/>
-          <a:ext cx="4225680" cy="3169080"/>
+          <a:off x="4703760" y="53604000"/>
+          <a:ext cx="4224960" cy="3168720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1315,9 +1315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>591480</xdr:colOff>
+      <xdr:colOff>591120</xdr:colOff>
       <xdr:row>348</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1330,8 +1330,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9027000" y="53596080"/>
-          <a:ext cx="4242600" cy="3181680"/>
+          <a:off x="9026280" y="53596080"/>
+          <a:ext cx="4242600" cy="3181320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1352,9 +1352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>504720</xdr:colOff>
+      <xdr:colOff>504360</xdr:colOff>
       <xdr:row>253</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1364,7 +1364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13837320" y="25974000"/>
-          <a:ext cx="1305360" cy="15408000"/>
+          <a:ext cx="1305000" cy="15407640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1430,9 +1430,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>36720</xdr:colOff>
+      <xdr:colOff>36360</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1446,7 +1446,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="87480" y="11735280"/>
-          <a:ext cx="4966200" cy="1807200"/>
+          <a:ext cx="4965120" cy="1806840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1467,9 +1467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>338760</xdr:colOff>
+      <xdr:colOff>338400</xdr:colOff>
       <xdr:row>373</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1483,7 +1483,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3074040" y="59059080"/>
-          <a:ext cx="4965840" cy="1807200"/>
+          <a:ext cx="4964760" cy="1806840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1504,9 +1504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1011240</xdr:colOff>
+      <xdr:colOff>1010880</xdr:colOff>
       <xdr:row>520</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1520,7 +1520,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2687400" y="82940760"/>
-          <a:ext cx="4966560" cy="1807200"/>
+          <a:ext cx="4965480" cy="1806840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1541,9 +1541,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>452880</xdr:colOff>
+      <xdr:colOff>452520</xdr:colOff>
       <xdr:row>858</xdr:row>
-      <xdr:rowOff>43200</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1557,7 +1557,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="504000" y="137811240"/>
-          <a:ext cx="4965840" cy="1807200"/>
+          <a:ext cx="4964760" cy="1806840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1578,9 +1578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1133280</xdr:colOff>
+      <xdr:colOff>1132920</xdr:colOff>
       <xdr:row>409</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1594,7 +1594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="63521280"/>
-          <a:ext cx="4258440" cy="3194280"/>
+          <a:ext cx="4257720" cy="3193920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1615,9 +1615,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>389880</xdr:colOff>
+      <xdr:colOff>389520</xdr:colOff>
       <xdr:row>409</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,8 +1630,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4676760" y="63529920"/>
-          <a:ext cx="4227120" cy="3169800"/>
+          <a:off x="4676400" y="63529920"/>
+          <a:ext cx="4226400" cy="3169440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,9 +1652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>1010160</xdr:colOff>
+      <xdr:colOff>1009800</xdr:colOff>
       <xdr:row>409</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1667,8 +1667,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9438840" y="63530640"/>
-          <a:ext cx="4249440" cy="3187080"/>
+          <a:off x="9438120" y="63530640"/>
+          <a:ext cx="4249440" cy="3186720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,9 +1689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1126440</xdr:colOff>
+      <xdr:colOff>1126080</xdr:colOff>
       <xdr:row>437</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1705,7 +1705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="68072760"/>
-          <a:ext cx="4251600" cy="3188520"/>
+          <a:ext cx="4250880" cy="3188160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1726,9 +1726,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>516240</xdr:colOff>
+      <xdr:colOff>515880</xdr:colOff>
       <xdr:row>437</xdr:row>
-      <xdr:rowOff>81360</xdr:rowOff>
+      <xdr:rowOff>81000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1741,8 +1741,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838400" y="68074920"/>
-          <a:ext cx="4191840" cy="3143880"/>
+          <a:off x="4838040" y="68074920"/>
+          <a:ext cx="4191120" cy="3143520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1763,9 +1763,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>788400</xdr:colOff>
+      <xdr:colOff>788040</xdr:colOff>
       <xdr:row>437</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1778,8 +1778,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9264240" y="68127840"/>
-          <a:ext cx="4202280" cy="3151800"/>
+          <a:off x="9263520" y="68127840"/>
+          <a:ext cx="4202280" cy="3151440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1800,9 +1800,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>559440</xdr:colOff>
+      <xdr:colOff>559080</xdr:colOff>
       <xdr:row>207</xdr:row>
-      <xdr:rowOff>153360</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1816,7 +1816,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15202800" y="33321960"/>
-          <a:ext cx="2432880" cy="563760"/>
+          <a:ext cx="2432520" cy="563400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1837,9 +1837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1137960</xdr:colOff>
+      <xdr:colOff>1137600</xdr:colOff>
       <xdr:row>465</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1853,7 +1853,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="72600480"/>
-          <a:ext cx="4263120" cy="3197160"/>
+          <a:ext cx="4262400" cy="3196800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1874,9 +1874,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>442080</xdr:colOff>
+      <xdr:colOff>441720</xdr:colOff>
       <xdr:row>465</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1889,8 +1889,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4703040" y="72619560"/>
-          <a:ext cx="4253040" cy="3189600"/>
+          <a:off x="4702680" y="72619560"/>
+          <a:ext cx="4252320" cy="3189240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1911,9 +1911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>717840</xdr:colOff>
+      <xdr:colOff>717480</xdr:colOff>
       <xdr:row>465</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1926,8 +1926,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9132120" y="72609480"/>
-          <a:ext cx="4263840" cy="3197880"/>
+          <a:off x="9131400" y="72609480"/>
+          <a:ext cx="4263840" cy="3197520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1948,9 +1948,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1137960</xdr:colOff>
+      <xdr:colOff>1137600</xdr:colOff>
       <xdr:row>494</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1964,7 +1964,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="77315040"/>
-          <a:ext cx="4263120" cy="3197160"/>
+          <a:ext cx="4262400" cy="3196800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1985,9 +1985,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>429120</xdr:colOff>
+      <xdr:colOff>428760</xdr:colOff>
       <xdr:row>494</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2000,8 +2000,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4729320" y="77315040"/>
-          <a:ext cx="4213800" cy="3160440"/>
+          <a:off x="4728960" y="77315040"/>
+          <a:ext cx="4213080" cy="3160080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2022,9 +2022,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>654840</xdr:colOff>
+      <xdr:colOff>654480</xdr:colOff>
       <xdr:row>494</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2037,8 +2037,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9073440" y="77322600"/>
-          <a:ext cx="4259520" cy="3194640"/>
+          <a:off x="9072720" y="77322600"/>
+          <a:ext cx="4259520" cy="3194280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2059,9 +2059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1137960</xdr:colOff>
+      <xdr:colOff>1137600</xdr:colOff>
       <xdr:row>553</xdr:row>
-      <xdr:rowOff>108360</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2075,7 +2075,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="86905800"/>
-          <a:ext cx="4263120" cy="3197160"/>
+          <a:ext cx="4262400" cy="3196800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2096,9 +2096,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>211320</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>553</xdr:row>
-      <xdr:rowOff>87480</xdr:rowOff>
+      <xdr:rowOff>87120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2111,8 +2111,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4541760" y="86944320"/>
-          <a:ext cx="4183560" cy="3137760"/>
+          <a:off x="4541400" y="86944320"/>
+          <a:ext cx="4182840" cy="3137400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2133,9 +2133,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
+      <xdr:colOff>619200</xdr:colOff>
       <xdr:row>553</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2148,8 +2148,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9015120" y="86905800"/>
-          <a:ext cx="4282560" cy="3211920"/>
+          <a:off x="9014400" y="86905800"/>
+          <a:ext cx="4282560" cy="3211560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2170,9 +2170,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1157760</xdr:colOff>
+      <xdr:colOff>1157400</xdr:colOff>
       <xdr:row>581</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2186,7 +2186,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="91457640"/>
-          <a:ext cx="4282920" cy="3212280"/>
+          <a:ext cx="4282200" cy="3211920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2207,9 +2207,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>246240</xdr:colOff>
+      <xdr:colOff>245880</xdr:colOff>
       <xdr:row>581</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2222,8 +2222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4517280" y="91457640"/>
-          <a:ext cx="4242960" cy="3182040"/>
+          <a:off x="4516920" y="91457640"/>
+          <a:ext cx="4242240" cy="3181680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2244,9 +2244,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>595800</xdr:colOff>
+      <xdr:colOff>595440</xdr:colOff>
       <xdr:row>581</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2259,8 +2259,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9020520" y="91467000"/>
-          <a:ext cx="4253400" cy="3189960"/>
+          <a:off x="9019800" y="91467000"/>
+          <a:ext cx="4253400" cy="3189600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2281,9 +2281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1118160</xdr:colOff>
+      <xdr:colOff>1117800</xdr:colOff>
       <xdr:row>609</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2297,7 +2297,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="96009120"/>
-          <a:ext cx="4243320" cy="3182400"/>
+          <a:ext cx="4242600" cy="3182040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2318,9 +2318,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>609</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2333,8 +2333,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4461480" y="96018480"/>
-          <a:ext cx="4253400" cy="3189960"/>
+          <a:off x="4461120" y="96018480"/>
+          <a:ext cx="4252680" cy="3189600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2355,9 +2355,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>568800</xdr:colOff>
+      <xdr:colOff>568440</xdr:colOff>
       <xdr:row>609</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2370,8 +2370,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9030960" y="96037920"/>
-          <a:ext cx="4215960" cy="3161880"/>
+          <a:off x="9030240" y="96037920"/>
+          <a:ext cx="4215960" cy="3161520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2392,9 +2392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1147680</xdr:colOff>
+      <xdr:colOff>1147320</xdr:colOff>
       <xdr:row>638</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2408,7 +2408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="100733400"/>
-          <a:ext cx="4272840" cy="3204720"/>
+          <a:ext cx="4272120" cy="3204360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2429,9 +2429,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
+      <xdr:colOff>71640</xdr:colOff>
       <xdr:row>638</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2444,8 +2444,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4318200" y="100733040"/>
-          <a:ext cx="4267800" cy="3200760"/>
+          <a:off x="4317840" y="100733040"/>
+          <a:ext cx="4267080" cy="3200400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2466,9 +2466,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>638</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2481,8 +2481,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8739720" y="100733040"/>
-          <a:ext cx="4255200" cy="3191400"/>
+          <a:off x="8739000" y="100733040"/>
+          <a:ext cx="4255200" cy="3191040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2505,7 +2505,7 @@
   <dimension ref="A1:AMJ1022"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A633" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D643" activeCellId="0" sqref="D643"/>
+      <selection pane="topLeft" activeCell="A651" activeCellId="0" sqref="A651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15963,8 +15963,36 @@
       <c r="C643" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="J643" s="7"/>
-      <c r="M643" s="8"/>
+      <c r="D643" s="0" t="n">
+        <v>47487</v>
+      </c>
+      <c r="E643" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="F643" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="G643" s="0" t="n">
+        <v>83</v>
+      </c>
+      <c r="H643" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="I643" s="0" t="n">
+        <v>1201</v>
+      </c>
+      <c r="J643" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K643" s="0" t="n">
+        <v>158.3</v>
+      </c>
+      <c r="L643" s="0" t="n">
+        <v>26.29</v>
+      </c>
+      <c r="M643" s="8" t="n">
+        <v>64.01</v>
+      </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="23"/>
